--- a/Doc/KeHoach.xlsx
+++ b/Doc/KeHoach.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TieuLuan\english_center\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A794FA6-1298-4502-8A8E-C6A6D037DA12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F874B34-B3F7-4BBF-B223-D6E4A676A295}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A7FB6FBC-0757-4AC8-8A2A-7B9FC265D2D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A7FB6FBC-0757-4AC8-8A2A-7B9FC265D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Code" sheetId="3" r:id="rId2"/>
-    <sheet name="test" sheetId="2" r:id="rId3"/>
+    <sheet name="Restful api" sheetId="5" r:id="rId3"/>
+    <sheet name="test" sheetId="2" r:id="rId4"/>
+    <sheet name="usercase" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="101">
   <si>
     <t>KẾ HOẠCH ĐỒ ÁN</t>
   </si>
@@ -279,6 +281,83 @@
   </si>
   <si>
     <t>Giáo viên, học viên</t>
+  </si>
+  <si>
+    <t>Trang</t>
+  </si>
+  <si>
+    <t>Restful API</t>
+  </si>
+  <si>
+    <t>API (post) login</t>
+  </si>
+  <si>
+    <t>API (get) toàn bộ lịch
+API (get) theo member</t>
+  </si>
+  <si>
+    <t>API (get) thông tin cá nhân theo member</t>
+  </si>
+  <si>
+    <t>API (get) list giảng viên
+API (post) add giảng viên
+API (put) edit giảng viên
+API (delete) giảng viên</t>
+  </si>
+  <si>
+    <t>API (get) list nhân viên
+API (post) add nhân viên
+API (put) edit nhân viên
+API (delete) nhân viên</t>
+  </si>
+  <si>
+    <t>API (get) list tài liệu
+API (get) detail dữ liệu
+API (post) add dữ liệu
+API (put) chỉnh sửa phân quyền</t>
+  </si>
+  <si>
+    <t>API (get) thống kê theo doanh thu và số lượng học viên
+API (get) thống kê theo số lượng buổi dạy</t>
+  </si>
+  <si>
+    <t>API (get) list học viên
+API (post) thêm học viên
+API (put) edit học viên
+API (delete) học viên</t>
+  </si>
+  <si>
+    <t>API (get) list lớp học
+API (get) detail lớp học
+API (post) thêm lớp học
+API (put) chỉnh sửa lớp học
+API (delete) xóa lớp học</t>
+  </si>
+  <si>
+    <t>API (get) list buổi học
+API (post) thêm buổi học
+API (put) chỉnh sửa buổi học
+API (delete) xóa buổi học</t>
+  </si>
+  <si>
+    <t>API (get) list khóa học
+API (post) thêm khóa học
+API (put) chỉnh sửa khóa học
+API (delete) xóa khóa học</t>
+  </si>
+  <si>
+    <t>API (get) tải tài liệu</t>
+  </si>
+  <si>
+    <t>API (get) các buổi vắng theo học viên
+API (put) đăng ký học bù</t>
+  </si>
+  <si>
+    <t>API (get) list học viên theo lớp
+API (put) điểm danh</t>
+  </si>
+  <si>
+    <t>API (post) ghi danh vào lớp học</t>
   </si>
 </sst>
 </file>
@@ -286,7 +365,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -508,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -525,6 +604,75 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -543,95 +691,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,6 +733,405 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>273685</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7996BE63-2567-4DC3-BEF9-6F40CA40FE26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="0"/>
+          <a:ext cx="5731510" cy="5996940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1891</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>117659</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{070D7962-593C-4C40-A8CB-168AD101127B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="6057900"/>
+          <a:ext cx="4230991" cy="3584759"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>564626</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>18154</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5AC6A58-C181-4D48-92F0-BA866552F92E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="9744075"/>
+          <a:ext cx="4212701" cy="2847079"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>437333</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>100090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F329EE00-219D-439A-9FEC-7F8BDA50AD45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333375" y="12630150"/>
+          <a:ext cx="3761558" cy="3090940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>410292</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>9429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C27EAE83-A364-48DC-A79B-40E3CEBF1170}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="15773400"/>
+          <a:ext cx="3877392" cy="3286029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571483</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>57067</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BD1F2C1-ADAD-4738-8A92-DEB55CF7179D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="19097625"/>
+          <a:ext cx="4200508" cy="3438442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>572604</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>1051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FDFA73E-DCA2-4DFE-8A0C-AEF9B61F9525}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="22574250"/>
+          <a:ext cx="3944454" cy="3334801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>427434</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>16286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{579E8277-C50D-4022-90DE-683504A55039}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="26079450"/>
+          <a:ext cx="3846909" cy="3273836"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19020</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>55040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0CAEB48-6A42-4E7C-82E8-EA8AB8772B7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="29451300"/>
+          <a:ext cx="4048095" cy="2036240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -949,7 +1433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272948A2-7F26-4CFA-A021-5826BE6C1C3B}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -964,10 +1448,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -977,7 +1461,7 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="1"/>
@@ -1078,10 +1562,10 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1120,20 +1604,20 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="6" t="s">
         <v>17</v>
       </c>
@@ -1153,16 +1637,16 @@
       <c r="D17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="34" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -1171,122 +1655,122 @@
       <c r="D18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="12"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="12"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="13"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="15"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="15"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="10">
         <v>44208</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="10">
         <v>44389</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="15"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="10">
         <v>44420</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="10">
         <v>44208</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="10">
         <v>44389</v>
       </c>
     </row>
@@ -1312,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E1DFB9-20F6-46E3-AB9B-0AD9E046EE24}">
   <dimension ref="B2:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="B2:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,597 +1811,597 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="24">
         <v>44466</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="24">
         <f>F3+3</f>
         <v>44469</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="37" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="25" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="24">
         <v>44470</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="24">
         <f t="shared" ref="G4:G32" si="0">F4+3</f>
         <v>44473</v>
       </c>
-      <c r="H4" s="29"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="29"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="25" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="24">
         <v>44474</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="24">
         <f t="shared" si="0"/>
         <v>44477</v>
       </c>
-      <c r="H5" s="29"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="29"/>
-      <c r="C6" s="31" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="24">
         <v>44478</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="24">
         <f t="shared" si="0"/>
         <v>44481</v>
       </c>
-      <c r="H6" s="29"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="25" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="24">
         <v>44482</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="24">
         <f t="shared" si="0"/>
         <v>44485</v>
       </c>
-      <c r="H7" s="29"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="25" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="24">
         <v>44486</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="24">
         <f t="shared" si="0"/>
         <v>44489</v>
       </c>
-      <c r="H8" s="29"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="25" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="24">
         <v>44490</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="24">
         <f t="shared" si="0"/>
         <v>44493</v>
       </c>
-      <c r="H9" s="29"/>
+      <c r="H9" s="38"/>
     </row>
     <row r="10" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="29"/>
-      <c r="C10" s="31" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="24">
         <v>44494</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="24">
         <f t="shared" si="0"/>
         <v>44497</v>
       </c>
-      <c r="H10" s="29"/>
+      <c r="H10" s="38"/>
     </row>
     <row r="11" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="29"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="25" t="s">
+      <c r="B11" s="38"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="24">
         <v>44498</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="24">
         <f t="shared" si="0"/>
         <v>44501</v>
       </c>
-      <c r="H11" s="29"/>
+      <c r="H11" s="38"/>
     </row>
     <row r="12" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="25" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="24">
         <v>44502</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="24">
         <f t="shared" si="0"/>
         <v>44505</v>
       </c>
-      <c r="H12" s="29"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="29"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="25" t="s">
+      <c r="B13" s="38"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="24">
         <v>44506</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="24">
         <f t="shared" si="0"/>
         <v>44509</v>
       </c>
-      <c r="H13" s="29"/>
+      <c r="H13" s="38"/>
     </row>
     <row r="14" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="29"/>
-      <c r="C14" s="26" t="s">
+      <c r="B14" s="38"/>
+      <c r="C14" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="24">
         <v>44510</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="24">
         <f t="shared" si="0"/>
         <v>44513</v>
       </c>
-      <c r="H14" s="29"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="29"/>
-      <c r="C15" s="26" t="s">
+      <c r="B15" s="38"/>
+      <c r="C15" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="24">
         <v>44514</v>
       </c>
-      <c r="G15" s="40">
+      <c r="G15" s="24">
         <f t="shared" si="0"/>
         <v>44517</v>
       </c>
-      <c r="H15" s="29"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="29"/>
-      <c r="C16" s="31" t="s">
+      <c r="B16" s="38"/>
+      <c r="C16" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="24">
         <v>44518</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="24">
         <f t="shared" si="0"/>
         <v>44521</v>
       </c>
-      <c r="H16" s="29"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="2:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="29"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="27" t="s">
+      <c r="B17" s="38"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="25">
         <v>44522</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="25">
         <f t="shared" si="0"/>
         <v>44525</v>
       </c>
-      <c r="H17" s="43"/>
+      <c r="H17" s="39"/>
     </row>
     <row r="18" spans="2:8" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="26">
         <v>44466</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="26">
         <f t="shared" si="0"/>
         <v>44469</v>
       </c>
-      <c r="H18" s="37" t="s">
+      <c r="H18" s="40" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="25" t="s">
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="40">
+      <c r="F19" s="24">
         <v>44470</v>
       </c>
-      <c r="G19" s="40">
+      <c r="G19" s="24">
         <f t="shared" si="0"/>
         <v>44473</v>
       </c>
-      <c r="H19" s="32"/>
+      <c r="H19" s="41"/>
     </row>
     <row r="20" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="25" t="s">
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="24">
         <v>44474</v>
       </c>
-      <c r="G20" s="40">
+      <c r="G20" s="24">
         <f t="shared" si="0"/>
         <v>44477</v>
       </c>
-      <c r="H20" s="32"/>
+      <c r="H20" s="41"/>
     </row>
     <row r="21" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="32"/>
-      <c r="C21" s="31" t="s">
+      <c r="B21" s="41"/>
+      <c r="C21" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F21" s="24">
         <v>44478</v>
       </c>
-      <c r="G21" s="40">
+      <c r="G21" s="24">
         <f t="shared" si="0"/>
         <v>44481</v>
       </c>
-      <c r="H21" s="32"/>
+      <c r="H21" s="41"/>
     </row>
     <row r="22" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="25" t="s">
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22" s="24">
         <v>44482</v>
       </c>
-      <c r="G22" s="40">
+      <c r="G22" s="24">
         <f t="shared" si="0"/>
         <v>44485</v>
       </c>
-      <c r="H22" s="32"/>
+      <c r="H22" s="41"/>
     </row>
     <row r="23" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="25" t="s">
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="40">
+      <c r="F23" s="24">
         <v>44486</v>
       </c>
-      <c r="G23" s="40">
+      <c r="G23" s="24">
         <f t="shared" si="0"/>
         <v>44489</v>
       </c>
-      <c r="H23" s="32"/>
+      <c r="H23" s="41"/>
     </row>
     <row r="24" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="25" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="24">
         <v>44490</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="24">
         <f t="shared" si="0"/>
         <v>44493</v>
       </c>
-      <c r="H24" s="32"/>
+      <c r="H24" s="41"/>
     </row>
     <row r="25" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="32"/>
-      <c r="C25" s="31" t="s">
+      <c r="B25" s="41"/>
+      <c r="C25" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="40">
+      <c r="F25" s="24">
         <v>44494</v>
       </c>
-      <c r="G25" s="40">
+      <c r="G25" s="24">
         <f t="shared" si="0"/>
         <v>44497</v>
       </c>
-      <c r="H25" s="32"/>
+      <c r="H25" s="41"/>
     </row>
     <row r="26" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="25" t="s">
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="40">
+      <c r="F26" s="24">
         <v>44498</v>
       </c>
-      <c r="G26" s="40">
+      <c r="G26" s="24">
         <f t="shared" si="0"/>
         <v>44501</v>
       </c>
-      <c r="H26" s="32"/>
+      <c r="H26" s="41"/>
     </row>
     <row r="27" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="25" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="40">
+      <c r="F27" s="24">
         <v>44502</v>
       </c>
-      <c r="G27" s="40">
+      <c r="G27" s="24">
         <f t="shared" si="0"/>
         <v>44505</v>
       </c>
-      <c r="H27" s="32"/>
+      <c r="H27" s="41"/>
     </row>
     <row r="28" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="25" t="s">
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="40">
+      <c r="F28" s="24">
         <v>44506</v>
       </c>
-      <c r="G28" s="40">
+      <c r="G28" s="24">
         <f t="shared" si="0"/>
         <v>44509</v>
       </c>
-      <c r="H28" s="32"/>
+      <c r="H28" s="41"/>
     </row>
     <row r="29" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="32"/>
-      <c r="C29" s="26" t="s">
+      <c r="B29" s="41"/>
+      <c r="C29" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="40">
+      <c r="F29" s="24">
         <v>44510</v>
       </c>
-      <c r="G29" s="40">
+      <c r="G29" s="24">
         <f t="shared" si="0"/>
         <v>44513</v>
       </c>
-      <c r="H29" s="32"/>
+      <c r="H29" s="41"/>
     </row>
     <row r="30" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="32"/>
-      <c r="C30" s="26" t="s">
+      <c r="B30" s="41"/>
+      <c r="C30" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F30" s="40">
+      <c r="F30" s="24">
         <v>44514</v>
       </c>
-      <c r="G30" s="40">
+      <c r="G30" s="24">
         <f t="shared" si="0"/>
         <v>44517</v>
       </c>
-      <c r="H30" s="32"/>
+      <c r="H30" s="41"/>
     </row>
     <row r="31" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="32"/>
-      <c r="C31" s="31" t="s">
+      <c r="B31" s="41"/>
+      <c r="C31" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F31" s="40">
+      <c r="F31" s="24">
         <v>44518</v>
       </c>
-      <c r="G31" s="40">
+      <c r="G31" s="24">
         <f t="shared" si="0"/>
         <v>44521</v>
       </c>
-      <c r="H31" s="32"/>
+      <c r="H31" s="41"/>
     </row>
     <row r="32" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="25" t="s">
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="35" t="s">
+      <c r="E32" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F32" s="40">
+      <c r="F32" s="24">
         <v>44522</v>
       </c>
-      <c r="G32" s="40">
+      <c r="G32" s="24">
         <f t="shared" si="0"/>
         <v>44525</v>
       </c>
-      <c r="H32" s="33"/>
+      <c r="H32" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1940,6 +2424,209 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BC2BB8-C4FA-4062-96FB-397B3A7E82B2}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
+    <col min="4" max="4" width="57.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12"/>
+      <c r="B1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+      <c r="A5" s="41"/>
+      <c r="B5" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
+      <c r="B9" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="86.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="41"/>
+      <c r="B13" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="41"/>
+      <c r="B14" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="35.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="41"/>
+      <c r="B15" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B15:B16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEEBF46C-8EC3-46CD-9A65-39D588FE0617}">
   <dimension ref="B2:H17"/>
   <sheetViews>
@@ -1959,324 +2646,339 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="24">
         <v>44470</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="24">
         <f>F3+2</f>
         <v>44472</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="37" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="25" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="24">
         <v>44474</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="24">
         <f t="shared" ref="G4:G17" si="0">F4+2</f>
         <v>44476</v>
       </c>
-      <c r="H4" s="29"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="29"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="25" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="24">
         <v>44478</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="24">
         <f t="shared" si="0"/>
         <v>44480</v>
       </c>
-      <c r="H5" s="29"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="29"/>
-      <c r="C6" s="31" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="24">
         <v>44482</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="24">
         <f t="shared" si="0"/>
         <v>44484</v>
       </c>
-      <c r="H6" s="29"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="25" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="24">
         <v>44486</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="24">
         <f t="shared" si="0"/>
         <v>44488</v>
       </c>
-      <c r="H7" s="29"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="25" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="24">
         <v>44490</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="24">
         <f t="shared" si="0"/>
         <v>44492</v>
       </c>
-      <c r="H8" s="29"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="25" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="24">
         <v>44494</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="24">
         <f t="shared" si="0"/>
         <v>44496</v>
       </c>
-      <c r="H9" s="29"/>
+      <c r="H9" s="38"/>
     </row>
     <row r="10" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="29"/>
-      <c r="C10" s="31" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="24">
         <v>44498</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="24">
         <f t="shared" si="0"/>
         <v>44500</v>
       </c>
-      <c r="H10" s="29"/>
+      <c r="H10" s="38"/>
     </row>
     <row r="11" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="29"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="25" t="s">
+      <c r="B11" s="38"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="24">
         <v>44502</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="24">
         <f t="shared" si="0"/>
         <v>44504</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="38" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="25" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="24">
         <v>44506</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="24">
         <f t="shared" si="0"/>
         <v>44508</v>
       </c>
-      <c r="H12" s="29"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="29"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="25" t="s">
+      <c r="B13" s="38"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="24">
         <v>44510</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="24">
         <f t="shared" si="0"/>
         <v>44512</v>
       </c>
-      <c r="H13" s="29"/>
+      <c r="H13" s="38"/>
     </row>
     <row r="14" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="29"/>
-      <c r="C14" s="26" t="s">
+      <c r="B14" s="38"/>
+      <c r="C14" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="24">
         <v>44514</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="24">
         <f t="shared" si="0"/>
         <v>44516</v>
       </c>
-      <c r="H14" s="29"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="29"/>
-      <c r="C15" s="26" t="s">
+      <c r="B15" s="38"/>
+      <c r="C15" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="24">
         <v>44518</v>
       </c>
-      <c r="G15" s="40">
+      <c r="G15" s="24">
         <f t="shared" si="0"/>
         <v>44520</v>
       </c>
-      <c r="H15" s="29"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="29"/>
-      <c r="C16" s="31" t="s">
+      <c r="B16" s="38"/>
+      <c r="C16" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="24">
         <v>44522</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="24">
         <f t="shared" si="0"/>
         <v>44524</v>
       </c>
-      <c r="H16" s="29"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="30"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="25" t="s">
+      <c r="B17" s="44"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="40">
+      <c r="F17" s="24">
         <v>44526</v>
       </c>
-      <c r="G17" s="40">
+      <c r="G17" s="24">
         <f t="shared" si="0"/>
         <v>44528</v>
       </c>
-      <c r="H17" s="30"/>
+      <c r="H17" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="H3:H10"/>
+    <mergeCell ref="H11:H17"/>
     <mergeCell ref="B3:B17"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="C16:C17"/>
-    <mergeCell ref="H3:H10"/>
-    <mergeCell ref="H11:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759FE9B4-1570-49AF-88B2-1F0F2E8EA221}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="L153" sqref="L153"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>